--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="291">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2350,6 +2350,206 @@
   </si>
   <si>
     <t>采购零食和卫生纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预订和团购回款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入190101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，预订</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15936.48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，团购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3369.49</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，电费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，水费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电费返</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.12</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2361,7 +2561,7 @@
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2394,6 +2594,13 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2435,7 +2642,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2448,6 +2655,7 @@
     </xf>
     <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="7" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2762,17 +2970,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="7"/>
+    <col min="6" max="6" width="10.875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.625" customWidth="1"/>
+    <col min="9" max="9" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2834,8 +3042,8 @@
       <c r="E3">
         <v>190101</v>
       </c>
-      <c r="G3" s="7">
-        <v>1488</v>
+      <c r="F3" s="8">
+        <v>-1488</v>
       </c>
       <c r="H3" s="7">
         <f>H2+F3-G3</f>
@@ -2867,14 +3075,58 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5">
+        <v>20190104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="7">
+        <v>19305.97</v>
+      </c>
+      <c r="H5" s="7">
+        <f>H4+F5-G5</f>
+        <v>304929.49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6">
+        <v>20190104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6">
+        <v>190103</v>
+      </c>
+      <c r="G6" s="7">
+        <v>739.88</v>
+      </c>
+      <c r="H6" s="7">
+        <f>H5+F6-G6</f>
+        <v>304189.61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1"/>
@@ -2904,15 +3156,15 @@
       <c r="D12" s="1"/>
       <c r="F12" s="7">
         <f>SUM(F3:F10)</f>
-        <v>0</v>
+        <v>17817.97</v>
       </c>
       <c r="G12" s="7">
         <f>SUM(G3:G10)</f>
-        <v>1610.6</v>
+        <v>862.48</v>
       </c>
       <c r="H12" s="7">
         <f>F12-G12</f>
-        <v>-1610.6</v>
+        <v>16955.490000000002</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2921,7 +3173,7 @@
       </c>
       <c r="H13" s="7">
         <f>H2+H12</f>
-        <v>285623.52</v>
+        <v>304189.61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3058,7 +3310,7 @@
       </c>
       <c r="H2" s="3">
         <f>'1月明细账'!H13</f>
-        <v>285623.52</v>
+        <v>304189.61</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3082,7 +3334,7 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H22" si="0">H2-G3+F3</f>
-        <v>285517.52</v>
+        <v>304083.61</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3106,7 +3358,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>385517.52</v>
+        <v>404083.61</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3130,7 +3382,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>435517.52</v>
+        <v>454083.61</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3154,7 +3406,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>535517.52</v>
+        <v>554083.61</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3178,7 +3430,7 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>585517.52</v>
+        <v>604083.61</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3202,7 +3454,7 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>585644.64</v>
+        <v>604210.73</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
@@ -3226,7 +3478,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>463144.64</v>
+        <v>481710.73</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>36</v>
@@ -3256,7 +3508,7 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>462544.64000000001</v>
+        <v>481110.73</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3280,7 +3532,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>461544.64</v>
+        <v>480110.73</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3304,7 +3556,7 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>456947.34</v>
+        <v>475513.43</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>50</v>
@@ -3331,7 +3583,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>456870.34</v>
+        <v>475436.43</v>
       </c>
       <c r="I13" t="s">
         <v>43</v>
@@ -3358,7 +3610,7 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" si="0"/>
-        <v>456710.34</v>
+        <v>475276.43</v>
       </c>
       <c r="I14" t="s">
         <v>51</v>
@@ -3385,7 +3637,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="0"/>
-        <v>456546.34</v>
+        <v>475112.43</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>48</v>
@@ -3412,7 +3664,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
-        <v>451735.34</v>
+        <v>470301.43</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>54</v>
@@ -3442,7 +3694,7 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" si="0"/>
-        <v>450277.34</v>
+        <v>468843.43</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>57</v>
@@ -3465,7 +3717,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" si="0"/>
-        <v>450277.34</v>
+        <v>468843.43</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>64</v>
@@ -3492,7 +3744,7 @@
       </c>
       <c r="H19" s="3">
         <f t="shared" si="0"/>
-        <v>448489.34</v>
+        <v>467055.43</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3516,7 +3768,7 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="0"/>
-        <v>447117.34</v>
+        <v>465683.43</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="57">
@@ -3540,7 +3792,7 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="0"/>
-        <v>446726.48000000004</v>
+        <v>465292.57</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>65</v>
@@ -3567,7 +3819,7 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="0"/>
-        <v>445197.38000000006</v>
+        <v>463763.47000000003</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>68</v>
@@ -3612,7 +3864,7 @@
       </c>
       <c r="H29" s="3">
         <f>H28+H2</f>
-        <v>445197.38</v>
+        <v>463763.47</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3765,7 +4017,7 @@
       </c>
       <c r="H2" s="7">
         <f>'9月明细账'!H29</f>
-        <v>445197.38</v>
+        <v>463763.47</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3789,7 +4041,7 @@
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H33" si="0">H2+F3-G3</f>
-        <v>434617.38</v>
+        <v>453183.47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3813,7 +4065,7 @@
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>434109.38</v>
+        <v>452675.47</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>73</v>
@@ -3840,7 +4092,7 @@
       </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
-        <v>431851.38</v>
+        <v>450417.47</v>
       </c>
       <c r="I5" t="s">
         <v>76</v>
@@ -3867,7 +4119,7 @@
       </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
-        <v>430856.38</v>
+        <v>449422.47</v>
       </c>
       <c r="I6" t="s">
         <v>79</v>
@@ -3894,7 +4146,7 @@
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>429972.38</v>
+        <v>448538.47</v>
       </c>
       <c r="I7" t="s">
         <v>82</v>
@@ -3921,7 +4173,7 @@
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>427708.38</v>
+        <v>446274.47</v>
       </c>
       <c r="I8" t="s">
         <v>84</v>
@@ -3948,7 +4200,7 @@
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>427428.38</v>
+        <v>445994.47</v>
       </c>
       <c r="I9" t="s">
         <v>87</v>
@@ -3975,7 +4227,7 @@
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>419905.98</v>
+        <v>438472.06999999995</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>89</v>
@@ -4002,7 +4254,7 @@
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>419810.27999999997</v>
+        <v>438376.36999999994</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>92</v>
@@ -4029,7 +4281,7 @@
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>417242.66</v>
+        <v>435808.74999999994</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>93</v>
@@ -4056,7 +4308,7 @@
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>417096.49</v>
+        <v>435662.57999999996</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>95</v>
@@ -4083,7 +4335,7 @@
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>414507.02</v>
+        <v>433073.11</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>99</v>
@@ -4110,7 +4362,7 @@
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>409413.21</v>
+        <v>427979.3</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>99</v>
@@ -4137,7 +4389,7 @@
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>408079.44</v>
+        <v>426645.52999999997</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>99</v>
@@ -4164,7 +4416,7 @@
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>398958.64</v>
+        <v>417524.73</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>104</v>
@@ -4191,7 +4443,7 @@
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>397585.4</v>
+        <v>416151.49</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>89</v>
@@ -4218,7 +4470,7 @@
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>396224.22000000003</v>
+        <v>414790.31</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>89</v>
@@ -4245,7 +4497,7 @@
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>395903.42000000004</v>
+        <v>414469.51</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>89</v>
@@ -4272,7 +4524,7 @@
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>395506.42000000004</v>
+        <v>414072.51</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>108</v>
@@ -4299,7 +4551,7 @@
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>395301.76000000007</v>
+        <v>413867.85000000003</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>111</v>
@@ -4326,7 +4578,7 @@
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>385763.53000000009</v>
+        <v>404329.62000000005</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>112</v>
@@ -4353,7 +4605,7 @@
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>385575.99000000011</v>
+        <v>404142.08000000007</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>115</v>
@@ -4380,7 +4632,7 @@
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>381302.57000000012</v>
+        <v>399868.66000000009</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>115</v>
@@ -4407,7 +4659,7 @@
       </c>
       <c r="H26" s="7">
         <f t="shared" si="0"/>
-        <v>354502.57000000012</v>
+        <v>373068.66000000009</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -4432,7 +4684,7 @@
       </c>
       <c r="H27" s="7">
         <f t="shared" si="0"/>
-        <v>353084.57000000012</v>
+        <v>371650.66000000009</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>120</v>
@@ -4459,7 +4711,7 @@
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>350084.57000000012</v>
+        <v>368650.66000000009</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -4484,7 +4736,7 @@
       </c>
       <c r="H29" s="7">
         <f t="shared" si="0"/>
-        <v>345322.6100000001</v>
+        <v>363888.70000000007</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>123</v>
@@ -4511,7 +4763,7 @@
       </c>
       <c r="H30" s="7">
         <f t="shared" si="0"/>
-        <v>342031.01000000013</v>
+        <v>360597.10000000009</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>126</v>
@@ -4538,7 +4790,7 @@
       </c>
       <c r="H31" s="7">
         <f t="shared" si="0"/>
-        <v>340031.01000000013</v>
+        <v>358597.10000000009</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -4563,7 +4815,7 @@
       </c>
       <c r="H32" s="7">
         <f t="shared" si="0"/>
-        <v>337591.01000000013</v>
+        <v>356157.10000000009</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>129</v>
@@ -4590,7 +4842,7 @@
       </c>
       <c r="H33" s="7">
         <f t="shared" si="0"/>
-        <v>336866.01000000013</v>
+        <v>355432.10000000009</v>
       </c>
       <c r="I33" s="1"/>
     </row>
@@ -4624,7 +4876,7 @@
       </c>
       <c r="H38" s="7">
         <f>H37+H2</f>
-        <v>336866.01</v>
+        <v>355432.1</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4799,7 +5051,7 @@
       </c>
       <c r="H2" s="7">
         <f>'10月明细账'!H38</f>
-        <v>336866.01</v>
+        <v>355432.1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4823,7 +5075,7 @@
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H30" si="0">H2+F3-G3</f>
-        <v>336488.01</v>
+        <v>355054.1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4847,7 +5099,7 @@
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>335700.01</v>
+        <v>354266.1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4871,7 +5123,7 @@
       </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
-        <v>334860.01</v>
+        <v>353426.1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4895,7 +5147,7 @@
       </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
-        <v>337210.01</v>
+        <v>355776.1</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>164</v>
@@ -4922,7 +5174,7 @@
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>335530.01</v>
+        <v>354096.1</v>
       </c>
       <c r="I7" t="s">
         <v>165</v>
@@ -4949,7 +5201,7 @@
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>331671.21000000002</v>
+        <v>350237.3</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>169</v>
@@ -4976,7 +5228,7 @@
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>330393.21000000002</v>
+        <v>348959.3</v>
       </c>
       <c r="I9" t="s">
         <v>172</v>
@@ -5003,7 +5255,7 @@
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>329893.21000000002</v>
+        <v>348459.3</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>176</v>
@@ -5030,7 +5282,7 @@
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>334817.56</v>
+        <v>353383.64999999997</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -5055,7 +5307,7 @@
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>334952.40999999997</v>
+        <v>353518.49999999994</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -5080,7 +5332,7 @@
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>331405.40999999997</v>
+        <v>349971.49999999994</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -5105,7 +5357,7 @@
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>324205.40999999997</v>
+        <v>342771.49999999994</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>189</v>
@@ -5132,7 +5384,7 @@
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>323790.61</v>
+        <v>342356.69999999995</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>89</v>
@@ -5159,7 +5411,7 @@
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>323050.61</v>
+        <v>341616.69999999995</v>
       </c>
       <c r="I16" t="s">
         <v>193</v>
@@ -5186,7 +5438,7 @@
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>318822.61</v>
+        <v>337388.69999999995</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>196</v>
@@ -5213,7 +5465,7 @@
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>317952.61</v>
+        <v>336518.69999999995</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>199</v>
@@ -5240,7 +5492,7 @@
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>317730.61</v>
+        <v>336296.69999999995</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>200</v>
@@ -5267,7 +5519,7 @@
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>317530.61</v>
+        <v>336096.69999999995</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>203</v>
@@ -5294,7 +5546,7 @@
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>317385.61</v>
+        <v>335951.69999999995</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>204</v>
@@ -5321,7 +5573,7 @@
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>316470.61</v>
+        <v>335036.69999999995</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>208</v>
@@ -5348,7 +5600,7 @@
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>314620.61</v>
+        <v>333186.69999999995</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>212</v>
@@ -5375,7 +5627,7 @@
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>313448.11</v>
+        <v>332014.19999999995</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>214</v>
@@ -5402,7 +5654,7 @@
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>319364.37</v>
+        <v>337930.45999999996</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -5427,7 +5679,7 @@
       </c>
       <c r="H26" s="7">
         <f t="shared" si="0"/>
-        <v>320847.71999999997</v>
+        <v>339413.80999999994</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -5452,7 +5704,7 @@
       </c>
       <c r="H27" s="7">
         <f t="shared" si="0"/>
-        <v>318963.71999999997</v>
+        <v>337529.80999999994</v>
       </c>
       <c r="I27" s="1"/>
     </row>
@@ -5477,7 +5729,7 @@
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>318836.12</v>
+        <v>337402.20999999996</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>226</v>
@@ -5504,7 +5756,7 @@
       </c>
       <c r="H29" s="7">
         <f t="shared" si="0"/>
-        <v>314074.15999999997</v>
+        <v>332640.24999999994</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>270</v>
@@ -5531,7 +5783,7 @@
       </c>
       <c r="H30" s="7">
         <f t="shared" si="0"/>
-        <v>319404.98</v>
+        <v>337971.06999999995</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>233</v>
@@ -5570,7 +5822,7 @@
       <c r="F36"/>
       <c r="H36" s="7">
         <f>H35+H2</f>
-        <v>319404.98000000004</v>
+        <v>337971.07</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5730,7 +5982,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7">
         <f>'11月明细账'!H36</f>
-        <v>319404.98000000004</v>
+        <v>337971.07</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5754,7 +6006,7 @@
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H19" si="0">H2+F3-G3</f>
-        <v>318684.18000000005</v>
+        <v>337250.27</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5778,7 +6030,7 @@
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>318670.18000000005</v>
+        <v>337236.27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5802,7 +6054,7 @@
       </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
-        <v>320748.60000000003</v>
+        <v>339314.69</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5826,7 +6078,7 @@
       </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
-        <v>326908.92000000004</v>
+        <v>345475.01</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5850,7 +6102,7 @@
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>326723.92000000004</v>
+        <v>345290.01</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5874,7 +6126,7 @@
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>326023.92000000004</v>
+        <v>344590.01</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5898,7 +6150,7 @@
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>325711.12000000005</v>
+        <v>344277.21</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5922,7 +6174,7 @@
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>325317.42000000004</v>
+        <v>343883.51</v>
       </c>
       <c r="I10" t="s">
         <v>253</v>
@@ -5949,7 +6201,7 @@
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>331767.90000000002</v>
+        <v>350333.99</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5973,7 +6225,7 @@
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>331993.51</v>
+        <v>350559.6</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5997,7 +6249,7 @@
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>331433.51</v>
+        <v>349999.6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6021,7 +6273,7 @@
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>331300.71000000002</v>
+        <v>349866.8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6045,7 +6297,7 @@
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>330517.61000000004</v>
+        <v>349083.7</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>263</v>
@@ -6072,7 +6324,7 @@
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>330250.01000000007</v>
+        <v>348816.10000000003</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6096,7 +6348,7 @@
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>325488.05000000005</v>
+        <v>344054.14</v>
       </c>
       <c r="I17" t="s">
         <v>271</v>
@@ -6123,7 +6375,7 @@
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>342609.64000000007</v>
+        <v>361175.73000000004</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6147,7 +6399,7 @@
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>341109.64000000007</v>
+        <v>359675.73000000004</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6174,7 +6426,7 @@
       </c>
       <c r="H23" s="7">
         <f>H2+H22</f>
-        <v>341109.64</v>
+        <v>359675.73</v>
       </c>
     </row>
     <row r="26" spans="1:9">

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +398,22 @@
   </si>
   <si>
     <t>拼场退费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买手机和电视配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见发票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,11 +827,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -891,7 +907,7 @@
         <v>-1488</v>
       </c>
       <c r="H3" s="4">
-        <f>H2+F3-G3</f>
+        <f t="shared" ref="H3:H10" si="0">H2+F3-G3</f>
         <v>285746.12</v>
       </c>
     </row>
@@ -915,7 +931,7 @@
         <v>122.6</v>
       </c>
       <c r="H4" s="4">
-        <f>H3+F4-G4</f>
+        <f t="shared" si="0"/>
         <v>285623.52</v>
       </c>
     </row>
@@ -939,7 +955,7 @@
         <v>19305.97</v>
       </c>
       <c r="H5" s="4">
-        <f>H4+F5-G5</f>
+        <f t="shared" si="0"/>
         <v>304929.49</v>
       </c>
       <c r="I5" t="s">
@@ -966,7 +982,7 @@
         <v>739.88</v>
       </c>
       <c r="H6" s="4">
-        <f>H5+F6-G6</f>
+        <f t="shared" si="0"/>
         <v>304189.61</v>
       </c>
       <c r="I6" t="s">
@@ -993,7 +1009,7 @@
         <v>300</v>
       </c>
       <c r="H7" s="4">
-        <f>H6+F7-G7</f>
+        <f t="shared" si="0"/>
         <v>303889.61</v>
       </c>
       <c r="I7" s="2"/>
@@ -1018,7 +1034,7 @@
         <v>400</v>
       </c>
       <c r="H8" s="4">
-        <f>H7+F8-G8</f>
+        <f t="shared" si="0"/>
         <v>303489.61</v>
       </c>
       <c r="I8" t="s">
@@ -1045,96 +1061,129 @@
         <v>-976</v>
       </c>
       <c r="H9" s="4">
-        <f>H8+F9-G9</f>
+        <f t="shared" si="0"/>
         <v>302513.61</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10">
+        <v>20190111</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>190107</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3645.37</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>298868.24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="F12" s="6">
-        <f>SUM(F3:F10)</f>
+      <c r="D14" s="1"/>
+      <c r="F14" s="6">
+        <f>SUM(F3:F12)</f>
         <v>16841.97</v>
       </c>
-      <c r="G12" s="4">
-        <f>SUM(G3:G10)</f>
-        <v>1562.48</v>
-      </c>
-      <c r="H12" s="4">
-        <f>F12-G12</f>
-        <v>15279.490000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
+      <c r="G14" s="4">
+        <f>SUM(G3:G12)</f>
+        <v>5207.8500000000004</v>
+      </c>
+      <c r="H14" s="4">
+        <f>F14-G14</f>
+        <v>11634.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4">
-        <f>H2+H12</f>
-        <v>302513.61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="1" t="s">
+      <c r="H15" s="4">
+        <f>H2+H14</f>
+        <v>298868.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
-        <f>SUM(B18:B20)</f>
+      <c r="B27">
+        <f>SUM(B20:B22)</f>
         <v>0</v>
       </c>
-      <c r="C25">
-        <f>SUM(C21:C24)</f>
+      <c r="C27">
+        <f>SUM(C23:C26)</f>
         <v>0</v>
       </c>
     </row>

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,6 +414,26 @@
   </si>
   <si>
     <t>见发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买小米电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼场退费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,11 +847,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -907,7 +927,7 @@
         <v>-1488</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H10" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H14" si="0">H2+F3-G3</f>
         <v>285746.12</v>
       </c>
     </row>
@@ -1094,96 +1114,208 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11">
+        <v>20190113</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>190108</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2199</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>296669.24</v>
+      </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12">
+        <v>20190113</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>190109</v>
+      </c>
+      <c r="G12" s="4">
+        <v>173.92</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>296495.32</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>20190113</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>190110</v>
+      </c>
+      <c r="G13" s="4">
+        <v>675</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>295820.32</v>
+      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
+      <c r="A14">
+        <v>20190113</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14">
+        <v>190111</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-288</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>295532.32</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="F14" s="6">
-        <f>SUM(F3:F12)</f>
-        <v>16841.97</v>
-      </c>
-      <c r="G14" s="4">
-        <f>SUM(G3:G12)</f>
-        <v>5207.8500000000004</v>
-      </c>
-      <c r="H14" s="4">
-        <f>F14-G14</f>
-        <v>11634.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
+      <c r="D20" s="1"/>
+      <c r="F20" s="6">
+        <f>SUM(F3:F18)</f>
+        <v>16553.97</v>
+      </c>
+      <c r="G20" s="4">
+        <f>SUM(G3:G18)</f>
+        <v>8255.77</v>
+      </c>
+      <c r="H20" s="4">
+        <f>F20-G20</f>
+        <v>8298.2000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="4">
-        <f>H2+H14</f>
-        <v>298868.24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="1" t="s">
+      <c r="H21" s="4">
+        <f>H2+H20</f>
+        <v>295532.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B27">
-        <f>SUM(B20:B22)</f>
+      <c r="B33">
+        <f>SUM(B26:B28)</f>
         <v>0</v>
       </c>
-      <c r="C27">
-        <f>SUM(C23:C26)</f>
+      <c r="C33">
+        <f>SUM(C29:C32)</f>
         <v>0</v>
       </c>
     </row>

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +434,18 @@
   </si>
   <si>
     <t>拼场退费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购沙发和服装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买零食</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,13 +862,14 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="4" bestFit="1" customWidth="1"/>
@@ -927,7 +940,7 @@
         <v>-1488</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H14" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H16" si="0">H2+F3-G3</f>
         <v>285746.12</v>
       </c>
     </row>
@@ -1214,15 +1227,53 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15">
+        <v>20190116</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>190112</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2098.3200000000002</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>293434</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16">
+        <v>20190116</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16">
+        <v>190113</v>
+      </c>
+      <c r="G16" s="4">
+        <v>87.32</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>293346.68</v>
+      </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
@@ -1247,11 +1298,11 @@
       </c>
       <c r="G20" s="4">
         <f>SUM(G3:G18)</f>
-        <v>8255.77</v>
+        <v>10441.41</v>
       </c>
       <c r="H20" s="4">
         <f>F20-G20</f>
-        <v>8298.2000000000007</v>
+        <v>6112.5600000000013</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1260,7 +1311,7 @@
       </c>
       <c r="H21" s="4">
         <f>H2+H20</f>
-        <v>295532.32</v>
+        <v>293346.68</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1295,6 +1346,10 @@
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C30" s="4">
+        <f>G10+G11+G15</f>
+        <v>7942.6900000000005</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
@@ -1316,7 +1371,7 @@
       </c>
       <c r="C33">
         <f>SUM(C29:C32)</f>
-        <v>0</v>
+        <v>7942.6900000000005</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,18 @@
   </si>
   <si>
     <t>购买零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入190102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,11 +871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -940,7 +952,7 @@
         <v>-1488</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H16" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H17" si="0">H2+F3-G3</f>
         <v>285746.12</v>
       </c>
     </row>
@@ -1277,100 +1289,132 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17">
+        <v>20190118</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10237.44</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>303584.12</v>
+      </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="F20" s="6">
-        <f>SUM(F3:F18)</f>
-        <v>16553.97</v>
-      </c>
-      <c r="G20" s="4">
-        <f>SUM(G3:G18)</f>
+      <c r="D22" s="1"/>
+      <c r="F22" s="6">
+        <f>SUM(F3:F20)</f>
+        <v>26791.410000000003</v>
+      </c>
+      <c r="G22" s="4">
+        <f>SUM(G3:G20)</f>
         <v>10441.41</v>
       </c>
-      <c r="H20" s="4">
-        <f>F20-G20</f>
-        <v>6112.5600000000013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
+      <c r="H22" s="4">
+        <f>F22-G22</f>
+        <v>16350.000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="4">
-        <f>H2+H20</f>
-        <v>293346.68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="1" t="s">
+      <c r="H23" s="4">
+        <f>H2+H22</f>
+        <v>303584.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C32" s="4">
         <f>G10+G11+G15</f>
         <v>7942.6900000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B33">
-        <f>SUM(B26:B28)</f>
+      <c r="B35">
+        <f>SUM(B28:B30)</f>
         <v>0</v>
       </c>
-      <c r="C33">
-        <f>SUM(C29:C32)</f>
+      <c r="C35">
+        <f>SUM(C31:C34)</f>
         <v>7942.6900000000005</v>
       </c>
     </row>

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="1月明细账" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -874,8 +874,8 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -952,7 +952,7 @@
         <v>-1488</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H17" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H18" si="0">H2+F3-G3</f>
         <v>285746.12</v>
       </c>
     </row>
@@ -1314,10 +1314,28 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18">
+        <v>20190121</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1">
+        <v>190114</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1153</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>302431.12</v>
+      </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
@@ -1342,11 +1360,11 @@
       </c>
       <c r="G22" s="4">
         <f>SUM(G3:G20)</f>
-        <v>10441.41</v>
+        <v>11594.41</v>
       </c>
       <c r="H22" s="4">
         <f>F22-G22</f>
-        <v>16350.000000000004</v>
+        <v>15197.000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1355,7 +1373,7 @@
       </c>
       <c r="H23" s="4">
         <f>H2+H22</f>
-        <v>303584.12</v>
+        <v>302431.12</v>
       </c>
     </row>
     <row r="27" spans="1:9">

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,6 +458,26 @@
   </si>
   <si>
     <t>入190102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店长和员工劳务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发搬运费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,11 +891,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -952,7 +972,7 @@
         <v>-1488</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H18" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H21" si="0">H2+F3-G3</f>
         <v>285746.12</v>
       </c>
     </row>
@@ -1339,101 +1359,192 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19">
+        <v>20190129</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1">
+        <v>190115</v>
+      </c>
+      <c r="G19" s="4">
+        <v>800</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>301631.12</v>
+      </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20">
+        <v>20190129</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1">
+        <v>190116</v>
+      </c>
+      <c r="G20" s="4">
+        <v>405.6</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>301225.52</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20190129</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1">
+        <v>190117</v>
+      </c>
+      <c r="G21" s="4">
+        <v>500</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>300725.52</v>
+      </c>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="F22" s="6">
-        <f>SUM(F3:F20)</f>
+      <c r="D26" s="1"/>
+      <c r="F26" s="6">
+        <f>SUM(F3:F24)</f>
         <v>26791.410000000003</v>
       </c>
-      <c r="G22" s="4">
-        <f>SUM(G3:G20)</f>
-        <v>11594.41</v>
-      </c>
-      <c r="H22" s="4">
-        <f>F22-G22</f>
-        <v>15197.000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
+      <c r="G26" s="4">
+        <f>SUM(G3:G24)</f>
+        <v>13300.01</v>
+      </c>
+      <c r="H26" s="4">
+        <f>F26-G26</f>
+        <v>13491.400000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="4">
-        <f>H2+H22</f>
-        <v>302431.12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="1" t="s">
+      <c r="H27" s="4">
+        <f>H2+H26</f>
+        <v>300725.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C36" s="4">
         <f>G10+G11+G15</f>
         <v>7942.6900000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+      <c r="C37" s="4">
+        <f>G4+G6+G8+G12+G16+G20</f>
+        <v>1929.3200000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+      <c r="C38" s="4">
+        <f>G7+G13+G18+G19</f>
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B35">
-        <f>SUM(B28:B30)</f>
+      <c r="B39">
+        <f>SUM(B32:B34)</f>
         <v>0</v>
       </c>
-      <c r="C35">
-        <f>SUM(C31:C34)</f>
-        <v>7942.6900000000005</v>
+      <c r="C39">
+        <f>SUM(C35:C38)</f>
+        <v>12800.01</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,6 +478,18 @@
   </si>
   <si>
     <t>沙发搬运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职人员工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,7 +907,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -972,7 +984,7 @@
         <v>-1488</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H21" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H22" si="0">H2+F3-G3</f>
         <v>285746.12</v>
       </c>
     </row>
@@ -1434,10 +1446,28 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22">
+        <v>20190130</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1">
+        <v>190118</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4761.96</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>295963.56</v>
+      </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
@@ -1463,11 +1493,11 @@
       </c>
       <c r="G26" s="4">
         <f>SUM(G3:G24)</f>
-        <v>13300.01</v>
+        <v>18061.97</v>
       </c>
       <c r="H26" s="4">
         <f>F26-G26</f>
-        <v>13491.400000000003</v>
+        <v>8729.4400000000023</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1476,7 +1506,7 @@
       </c>
       <c r="H27" s="4">
         <f>H2+H26</f>
-        <v>300725.52</v>
+        <v>295963.56</v>
       </c>
     </row>
     <row r="31" spans="1:9">

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +490,22 @@
   </si>
   <si>
     <t>全职人员工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼场退费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付结款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入190103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,16 +919,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="6" bestFit="1" customWidth="1"/>
@@ -984,7 +1001,7 @@
         <v>-1488</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H22" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H24" si="0">H2+F3-G3</f>
         <v>285746.12</v>
       </c>
     </row>
@@ -1471,110 +1488,166 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23">
+        <v>20190131</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1">
+        <v>190119</v>
+      </c>
+      <c r="F23" s="6">
+        <v>-576</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>295387.56</v>
+      </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="F26" s="6">
-        <f>SUM(F3:F24)</f>
-        <v>26791.410000000003</v>
-      </c>
-      <c r="G26" s="4">
-        <f>SUM(G3:G24)</f>
-        <v>18061.97</v>
-      </c>
-      <c r="H26" s="4">
-        <f>F26-G26</f>
-        <v>8729.4400000000023</v>
-      </c>
+      <c r="A24">
+        <v>20190131</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="6">
+        <v>20140.39</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>315527.95</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="F27" s="6">
+        <f>SUM(F3:F25)</f>
+        <v>46355.8</v>
+      </c>
+      <c r="G27" s="4">
+        <f>SUM(G3:G25)</f>
+        <v>18061.97</v>
+      </c>
+      <c r="H27" s="4">
+        <f>F27-G27</f>
+        <v>28293.83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="4">
-        <f>H2+H26</f>
-        <v>295963.56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="1" t="s">
+      <c r="H28" s="4">
+        <f>H2+H27</f>
+        <v>315527.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B34" s="6">
+        <f>F3+F5+F9+F14+F17+F23+F24</f>
+        <v>46355.8</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="4">
-        <f>G10+G11+G15</f>
-        <v>7942.6900000000005</v>
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="4">
+        <f>G10+G11+G15+G21</f>
+        <v>8442.69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C38" s="4">
         <f>G4+G6+G8+G12+G16+G20</f>
         <v>1929.3200000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="4">
-        <f>G7+G13+G18+G19</f>
-        <v>2928</v>
-      </c>
-    </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="4">
+        <f>G7+G13+G18+G19+G22</f>
+        <v>7689.96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B39">
-        <f>SUM(B32:B34)</f>
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <f>SUM(C35:C38)</f>
-        <v>12800.01</v>
+      <c r="B40">
+        <f>SUM(B33:B35)</f>
+        <v>46355.8</v>
+      </c>
+      <c r="C40">
+        <f>SUM(C36:C39)</f>
+        <v>18061.97</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1月明细账" sheetId="1" r:id="rId1"/>
+    <sheet name="2月明细" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,6 +507,18 @@
   </si>
   <si>
     <t>入190103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众点评借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入190201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -1660,4 +1673,98 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
+        <f>'1月明细账'!H24</f>
+        <v>315527.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>20190201</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>20058.240000000002</v>
+      </c>
+      <c r="H3" s="4">
+        <f>H2+F3-G3</f>
+        <v>335586.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="1月明细账" sheetId="1" r:id="rId1"/>
     <sheet name="2月明细" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,6 +519,57 @@
   </si>
   <si>
     <t>入190201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广通充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，抵用券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,9 +577,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -611,7 +663,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -622,6 +674,8 @@
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -935,8 +989,8 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1677,20 +1731,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1709,13 +1767,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1732,9 +1790,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
+      <c r="H2" s="8">
         <f>'1月明细账'!H24</f>
         <v>315527.95</v>
       </c>
@@ -1755,16 +1811,156 @@
       <c r="E3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="8">
         <v>20058.240000000002</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="8">
         <f>H2+F3-G3</f>
         <v>335586.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>20190202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>190201</v>
+      </c>
+      <c r="G4" s="8">
+        <v>4850</v>
+      </c>
+      <c r="H4" s="8">
+        <f>H3+F4-G4</f>
+        <v>330736.19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8">
+        <f>SUM(F3:F13)</f>
+        <v>20058.240000000002</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(G3:G13)</f>
+        <v>4850</v>
+      </c>
+      <c r="H14" s="8">
+        <f>F14-G14</f>
+        <v>15208.240000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="8">
+        <f>H2+H14</f>
+        <v>330736.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="8">
+        <f>F3</f>
+        <v>20058.240000000002</v>
+      </c>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8">
+        <f>G4</f>
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="8">
+        <f>SUM(B21:B23)</f>
+        <v>20058.240000000002</v>
+      </c>
+      <c r="C28" s="8">
+        <f>SUM(C24:C27)</f>
+        <v>4850</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +570,34 @@
       </rPr>
       <t>150</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职员工劳务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾客退费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海报和水费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1736,7 +1764,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1745,7 +1773,7 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="8" customWidth="1"/>
     <col min="9" max="9" width="21.625" customWidth="1"/>
@@ -1767,7 +1795,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -1811,7 +1839,7 @@
       <c r="E3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>20058.240000000002</v>
       </c>
       <c r="H3" s="8">
@@ -1846,21 +1874,93 @@
         <v>78</v>
       </c>
     </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>20190203</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>190202</v>
+      </c>
+      <c r="G5" s="8">
+        <v>500</v>
+      </c>
+      <c r="H5" s="8">
+        <f>H4+F5-G5</f>
+        <v>330236.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>20190203</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <v>190203</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-200</v>
+      </c>
+      <c r="H6" s="8">
+        <f>H5+F6-G6</f>
+        <v>330036.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>20190203</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>190204</v>
+      </c>
+      <c r="G7" s="8">
+        <v>130</v>
+      </c>
+      <c r="H7" s="8">
+        <f>H6+F7-G7</f>
+        <v>329906.19</v>
+      </c>
+    </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <f>SUM(F3:F13)</f>
-        <v>20058.240000000002</v>
+        <v>19858.240000000002</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(G3:G13)</f>
-        <v>4850</v>
+        <v>5480</v>
       </c>
       <c r="H14" s="8">
         <f>F14-G14</f>
-        <v>15208.240000000002</v>
+        <v>14378.240000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1869,7 +1969,7 @@
       </c>
       <c r="H15" s="8">
         <f>H2+H14</f>
-        <v>330736.19</v>
+        <v>329906.19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1894,8 +1994,8 @@
         <v>16</v>
       </c>
       <c r="B22" s="8">
-        <f>F3</f>
-        <v>20058.240000000002</v>
+        <f>F3+F6</f>
+        <v>19858.240000000002</v>
       </c>
       <c r="C22" s="8"/>
     </row>
@@ -1932,8 +2032,8 @@
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8">
-        <f>G4</f>
-        <v>4850</v>
+        <f>G4+G7</f>
+        <v>4980</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1942,7 +2042,8 @@
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8">
-        <v>0</v>
+        <f>G5</f>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1951,11 +2052,11 @@
       </c>
       <c r="B28" s="8">
         <f>SUM(B21:B23)</f>
-        <v>20058.240000000002</v>
+        <v>19858.240000000002</v>
       </c>
       <c r="C28" s="8">
         <f>SUM(C24:C27)</f>
-        <v>4850</v>
+        <v>5480</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -598,6 +598,14 @@
   </si>
   <si>
     <t>海报和水费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关人员感谢费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1764,7 +1772,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1946,6 +1954,54 @@
         <v>329906.19</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>20190206</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8">
+        <v>190205</v>
+      </c>
+      <c r="G8" s="8">
+        <v>333.32</v>
+      </c>
+      <c r="H8" s="8">
+        <f>H7+F8-G8</f>
+        <v>329572.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>20190206</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9">
+        <v>190206</v>
+      </c>
+      <c r="G9" s="8">
+        <v>220</v>
+      </c>
+      <c r="H9" s="8">
+        <f>H8+F9-G9</f>
+        <v>329352.87</v>
+      </c>
+    </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>10</v>
@@ -1956,11 +2012,11 @@
       </c>
       <c r="G14" s="8">
         <f>SUM(G3:G13)</f>
-        <v>5480</v>
+        <v>6033.32</v>
       </c>
       <c r="H14" s="8">
         <f>F14-G14</f>
-        <v>14378.240000000002</v>
+        <v>13824.920000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1969,7 +2025,7 @@
       </c>
       <c r="H15" s="8">
         <f>H2+H14</f>
-        <v>329906.19</v>
+        <v>329352.87</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2032,8 +2088,8 @@
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8">
-        <f>G4+G7</f>
-        <v>4980</v>
+        <f>G4+G7+G8</f>
+        <v>5313.32</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2042,8 +2098,8 @@
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8">
-        <f>G5</f>
-        <v>500</v>
+        <f>G5+G9</f>
+        <v>720</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2056,7 +2112,7 @@
       </c>
       <c r="C28" s="8">
         <f>SUM(C24:C27)</f>
-        <v>5480</v>
+        <v>6033.32</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -514,10 +514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大众点评借款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>入190201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -606,6 +602,279 @@
   </si>
   <si>
     <t>相关人员感谢费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职人员劳务和优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己人拼场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务接待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职员工劳务及两个红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日劳务及春节和情人节红包</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预订</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20058.24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，团购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众点评结款</t>
+  </si>
+  <si>
+    <t>大众点评结款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入190202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>团购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3272.66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，预订</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21572.28</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充饮料等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料和证据物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日，春节期间双薪，见明细</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日劳务</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +968,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -712,6 +981,7 @@
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1767,24 +2037,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1842,17 +2112,20 @@
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F3" s="6">
         <v>20058.240000000002</v>
       </c>
       <c r="H3" s="8">
-        <f>H2+F3-G3</f>
+        <f t="shared" ref="H3:H16" si="0">H2+F3-G3</f>
         <v>335586.19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1863,10 +2136,10 @@
         <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E4">
         <v>190201</v>
@@ -1875,11 +2148,11 @@
         <v>4850</v>
       </c>
       <c r="H4" s="8">
-        <f>H3+F4-G4</f>
+        <f t="shared" si="0"/>
         <v>330736.19</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1887,13 +2160,13 @@
         <v>20190203</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E5">
         <v>190202</v>
@@ -1902,7 +2175,7 @@
         <v>500</v>
       </c>
       <c r="H5" s="8">
-        <f>H4+F5-G5</f>
+        <f t="shared" si="0"/>
         <v>330236.19</v>
       </c>
     </row>
@@ -1911,13 +2184,13 @@
         <v>20190203</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E6">
         <v>190203</v>
@@ -1926,7 +2199,7 @@
         <v>-200</v>
       </c>
       <c r="H6" s="8">
-        <f>H5+F6-G6</f>
+        <f t="shared" si="0"/>
         <v>330036.19</v>
       </c>
     </row>
@@ -1935,13 +2208,13 @@
         <v>20190203</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E7">
         <v>190204</v>
@@ -1950,7 +2223,7 @@
         <v>130</v>
       </c>
       <c r="H7" s="8">
-        <f>H6+F7-G7</f>
+        <f t="shared" si="0"/>
         <v>329906.19</v>
       </c>
     </row>
@@ -1959,13 +2232,13 @@
         <v>20190206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E8">
         <v>190205</v>
@@ -1974,7 +2247,7 @@
         <v>333.32</v>
       </c>
       <c r="H8" s="8">
-        <f>H7+F8-G8</f>
+        <f t="shared" si="0"/>
         <v>329572.87</v>
       </c>
     </row>
@@ -1983,13 +2256,13 @@
         <v>20190206</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E9">
         <v>190206</v>
@@ -1998,121 +2271,304 @@
         <v>220</v>
       </c>
       <c r="H9" s="8">
-        <f>H8+F9-G9</f>
+        <f t="shared" si="0"/>
         <v>329352.87</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>20190216</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="6">
+        <v>24844.94</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>354197.81</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>20190216</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11">
+        <v>190207</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3360</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>350837.81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>20190216</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12">
+        <v>190208</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-268</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>350569.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>20190216</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13">
+        <v>190209</v>
+      </c>
+      <c r="G13" s="8">
+        <v>154.4</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>350415.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14">
+        <v>20190216</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14">
+        <v>190210</v>
+      </c>
+      <c r="G14" s="8">
+        <v>340</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="0"/>
+        <v>350075.41</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>20190216</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>190211</v>
+      </c>
+      <c r="G15" s="8">
+        <v>191.5</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="0"/>
+        <v>349883.91</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>20190216</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>190212</v>
+      </c>
+      <c r="G16" s="8">
+        <v>200</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="0"/>
+        <v>349683.91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="6">
-        <f>SUM(F3:F13)</f>
-        <v>19858.240000000002</v>
-      </c>
-      <c r="G14" s="8">
-        <f>SUM(G3:G13)</f>
-        <v>6033.32</v>
-      </c>
-      <c r="H14" s="8">
-        <f>F14-G14</f>
-        <v>13824.920000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
+      <c r="F20" s="6">
+        <f>SUM(F3:F19)</f>
+        <v>44435.18</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(G3:G19)</f>
+        <v>10279.219999999999</v>
+      </c>
+      <c r="H20" s="8">
+        <f>F20-G20</f>
+        <v>34155.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="8">
-        <f>H2+H14</f>
-        <v>329352.87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="1" t="s">
+      <c r="H21" s="8">
+        <f>H2+H20</f>
+        <v>349683.91000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B27" s="8">
         <v>0</v>
       </c>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="8">
-        <f>F3+F6</f>
-        <v>19858.240000000002</v>
-      </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B28" s="8">
+        <f>F3+F6+F12</f>
+        <v>19590.240000000002</v>
+      </c>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B29" s="8">
         <v>0</v>
       </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8">
-        <f>G4+G7+G8</f>
-        <v>5313.32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8">
+        <f>G4+G7+G8+G13+G15</f>
+        <v>5659.2199999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8">
-        <f>G5+G9</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8">
+        <f>G5+G9+G11+G14+G16</f>
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="8">
-        <f>SUM(B21:B23)</f>
-        <v>19858.240000000002</v>
-      </c>
-      <c r="C28" s="8">
-        <f>SUM(C24:C27)</f>
-        <v>6033.32</v>
+      <c r="B34" s="8">
+        <f>SUM(B27:B29)</f>
+        <v>19590.240000000002</v>
+      </c>
+      <c r="C34" s="8">
+        <f>SUM(C30:C33)</f>
+        <v>10279.219999999999</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="111">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -874,6 +874,94 @@
         <charset val="134"/>
       </rPr>
       <t>日劳务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职员工劳务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日劳务，另</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的物品</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1296,7 +1384,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:C40"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2037,12 +2125,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2121,7 +2209,7 @@
         <v>20058.240000000002</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H16" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H17" si="0">H2+F3-G3</f>
         <v>335586.19</v>
       </c>
       <c r="I3" t="s">
@@ -2458,117 +2546,149 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>20190218</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17">
+        <v>190213</v>
+      </c>
+      <c r="G17" s="8">
+        <v>731.5</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="0"/>
+        <v>348952.41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="6">
-        <f>SUM(F3:F19)</f>
+      <c r="F22" s="6">
+        <f>SUM(F3:F21)</f>
         <v>44435.18</v>
       </c>
-      <c r="G20" s="8">
-        <f>SUM(G3:G19)</f>
-        <v>10279.219999999999</v>
-      </c>
-      <c r="H20" s="8">
-        <f>F20-G20</f>
-        <v>34155.96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
+      <c r="G22" s="8">
+        <f>SUM(G3:G21)</f>
+        <v>11010.72</v>
+      </c>
+      <c r="H22" s="8">
+        <f>F22-G22</f>
+        <v>33424.46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="8">
-        <f>H2+H20</f>
-        <v>349683.91000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="1" t="s">
+      <c r="H23" s="8">
+        <f>H2+H22</f>
+        <v>348952.41000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="8">
-        <f>F3+F6+F12</f>
-        <v>19590.240000000002</v>
-      </c>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B29" s="8">
         <v>0</v>
       </c>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="8">
+        <f>F3+F6+F12+F10</f>
+        <v>44435.18</v>
+      </c>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8">
         <f>G4+G7+G8+G13+G15</f>
         <v>5659.2199999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8">
-        <f>G5+G9+G11+G14+G16</f>
-        <v>4620</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8">
+        <f>G5+G9+G11+G14+G16+G17</f>
+        <v>5351.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="8">
-        <f>SUM(B27:B29)</f>
-        <v>19590.240000000002</v>
-      </c>
-      <c r="C34" s="8">
-        <f>SUM(C30:C33)</f>
-        <v>10279.219999999999</v>
+      <c r="B36" s="8">
+        <f>SUM(B29:B31)</f>
+        <v>44435.18</v>
+      </c>
+      <c r="C36" s="8">
+        <f>SUM(C32:C35)</f>
+        <v>11010.72</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -962,6 +962,57 @@
         <charset val="134"/>
       </rPr>
       <t>的物品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白板和茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>299</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，茶几</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>380</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2130,7 +2181,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2209,7 +2260,7 @@
         <v>20058.240000000002</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H17" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H18" si="0">H2+F3-G3</f>
         <v>335586.19</v>
       </c>
       <c r="I3" t="s">
@@ -2574,9 +2625,31 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18">
+        <v>20190219</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18">
+        <v>190214</v>
+      </c>
+      <c r="G18" s="8">
+        <v>679</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="0"/>
+        <v>348273.41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
@@ -2588,11 +2661,11 @@
       </c>
       <c r="G22" s="8">
         <f>SUM(G3:G21)</f>
-        <v>11010.72</v>
+        <v>11689.72</v>
       </c>
       <c r="H22" s="8">
         <f>F22-G22</f>
-        <v>33424.46</v>
+        <v>32745.46</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2601,7 +2674,7 @@
       </c>
       <c r="H23" s="8">
         <f>H2+H22</f>
-        <v>348952.41000000003</v>
+        <v>348273.41000000003</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2655,7 +2728,8 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8">
-        <v>0</v>
+        <f>G18</f>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2688,7 +2762,7 @@
       </c>
       <c r="C36" s="8">
         <f>SUM(C32:C35)</f>
-        <v>11010.72</v>
+        <v>11689.72</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="1月明细账" sheetId="1" r:id="rId1"/>
     <sheet name="2月明细" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="119">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1014,6 +1014,78 @@
       </rPr>
       <t>380</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日劳务，见明细</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2176,12 +2248,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2260,7 +2332,7 @@
         <v>20058.240000000002</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H18" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H20" si="0">H2+F3-G3</f>
         <v>335586.19</v>
       </c>
       <c r="I3" t="s">
@@ -2651,118 +2723,177 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>20190225</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19">
+        <v>190215</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="0"/>
+        <v>347273.41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>20190225</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20">
+        <v>190216</v>
+      </c>
+      <c r="G20" s="8">
+        <v>900</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="0"/>
+        <v>346373.41</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="6">
-        <f>SUM(F3:F21)</f>
+      <c r="F25" s="6">
+        <f>SUM(F3:F24)</f>
         <v>44435.18</v>
       </c>
-      <c r="G22" s="8">
-        <f>SUM(G3:G21)</f>
-        <v>11689.72</v>
-      </c>
-      <c r="H22" s="8">
-        <f>F22-G22</f>
-        <v>32745.46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
+      <c r="G25" s="8">
+        <f>SUM(G3:G24)</f>
+        <v>13589.72</v>
+      </c>
+      <c r="H25" s="8">
+        <f>F25-G25</f>
+        <v>30845.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="8">
-        <f>H2+H22</f>
-        <v>348273.41000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="1" t="s">
+      <c r="H26" s="8">
+        <f>H2+H25</f>
+        <v>346373.41000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B32" s="8">
         <v>0</v>
       </c>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B33" s="8">
         <f>F3+F6+F12+F10</f>
         <v>44435.18</v>
       </c>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B34" s="8">
         <v>0</v>
       </c>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8">
         <f>G18</f>
         <v>679</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8">
-        <f>G4+G7+G8+G13+G15</f>
-        <v>5659.2199999999993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8">
+        <f>G4+G7+G8+G13+G15+G20</f>
+        <v>6559.2199999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8">
-        <f>G5+G9+G11+G14+G16+G17</f>
-        <v>5351.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8">
+        <f>G5+G9+G11+G14+G16+G17+G19</f>
+        <v>6351.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="8">
-        <f>SUM(B29:B31)</f>
+      <c r="B39" s="8">
+        <f>SUM(B32:B34)</f>
         <v>44435.18</v>
       </c>
-      <c r="C36" s="8">
-        <f>SUM(C32:C35)</f>
-        <v>11689.72</v>
+      <c r="C39" s="8">
+        <f>SUM(C35:C38)</f>
+        <v>13589.72</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="1月明细账" sheetId="1" r:id="rId1"/>
     <sheet name="2月明细" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1086,6 +1086,18 @@
   </si>
   <si>
     <t>保洁费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买零食</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2253,7 +2265,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2332,7 +2344,7 @@
         <v>20058.240000000002</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H20" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H21" si="0">H2+F3-G3</f>
         <v>335586.19</v>
       </c>
       <c r="I3" t="s">
@@ -2778,9 +2790,28 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21">
+        <v>20190226</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21">
+        <v>190217</v>
+      </c>
+      <c r="G21" s="8">
+        <v>353.8</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="0"/>
+        <v>346019.61</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
@@ -2792,11 +2823,11 @@
       </c>
       <c r="G25" s="8">
         <f>SUM(G3:G24)</f>
-        <v>13589.72</v>
+        <v>13943.519999999999</v>
       </c>
       <c r="H25" s="8">
         <f>F25-G25</f>
-        <v>30845.46</v>
+        <v>30491.660000000003</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2805,7 +2836,7 @@
       </c>
       <c r="H26" s="8">
         <f>H2+H25</f>
-        <v>346373.41000000003</v>
+        <v>346019.61</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2869,8 +2900,8 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8">
-        <f>G4+G7+G8+G13+G15+G20</f>
-        <v>6559.2199999999993</v>
+        <f>G4+G7+G8+G13+G15+G20+G21</f>
+        <v>6913.0199999999995</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2893,7 +2924,7 @@
       </c>
       <c r="C39" s="8">
         <f>SUM(C35:C38)</f>
-        <v>13589.72</v>
+        <v>13943.52</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1098,6 +1098,18 @@
   </si>
   <si>
     <t>购买零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公帐工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见工资表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2260,19 +2272,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="8" bestFit="1" customWidth="1"/>
@@ -2344,7 +2355,7 @@
         <v>20058.240000000002</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H21" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H22" si="0">H2+F3-G3</f>
         <v>335586.19</v>
       </c>
       <c r="I3" t="s">
@@ -2813,118 +2824,145 @@
         <v>346019.61</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="6">
-        <f>SUM(F3:F24)</f>
-        <v>44435.18</v>
-      </c>
-      <c r="G25" s="8">
-        <f>SUM(G3:G24)</f>
-        <v>13943.519999999999</v>
-      </c>
-      <c r="H25" s="8">
-        <f>F25-G25</f>
-        <v>30491.660000000003</v>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>20190227</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22">
+        <v>190218</v>
+      </c>
+      <c r="G22" s="8">
+        <v>4761.96</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="0"/>
+        <v>341257.64999999997</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6">
+        <f>SUM(F3:F25)</f>
+        <v>44435.18</v>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G3:G25)</f>
+        <v>18705.48</v>
+      </c>
+      <c r="H26" s="8">
+        <f>F26-G26</f>
+        <v>25729.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="8">
-        <f>H2+H25</f>
-        <v>346019.61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="1" t="s">
+      <c r="H27" s="8">
+        <f>H2+H26</f>
+        <v>341257.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="8">
-        <v>0</v>
-      </c>
-      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B34" s="8">
         <f>F3+F6+F12+F10</f>
         <v>44435.18</v>
       </c>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="8">
-        <v>0</v>
-      </c>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8">
+        <v>17</v>
+      </c>
+      <c r="B35" s="8">
         <v>0</v>
       </c>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8">
         <f>G18</f>
         <v>679</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8">
         <f>G4+G7+G8+G13+G15+G20+G21</f>
         <v>6913.0199999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8">
-        <f>G5+G9+G11+G14+G16+G17+G19</f>
-        <v>6351.5</v>
-      </c>
-    </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8">
+        <f>G5+G9+G11+G14+G16+G17+G19+G22</f>
+        <v>11113.46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="8">
-        <f>SUM(B32:B34)</f>
+      <c r="B40" s="8">
+        <f>SUM(B33:B35)</f>
         <v>44435.18</v>
       </c>
-      <c r="C39" s="8">
-        <f>SUM(C35:C38)</f>
-        <v>13943.52</v>
+      <c r="C40" s="8">
+        <f>SUM(C36:C39)</f>
+        <v>18705.48</v>
       </c>
     </row>
   </sheetData>
